--- a/biology/Zoologie/Dent/Dent.xlsx
+++ b/biology/Zoologie/Dent/Dent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dent  est un organe dur et fortement minéralisé implanté dans le palais des raies, la gencive des requins ou les os des mâchoires supérieure et inférieure des autres vertébrés, et dont les fonctions principales sont de saisir, retenir, déchirer et broyer les aliments, mais aussi la défense contre les prédateurs ou les rivaux.
 Les dents sont souvent caractérisées par le régime alimentaire de l'espèce qui conditionne leur forme, leur nombre, leur implantation ou leur pérennité. Par exemple, les félins ont des dents carnassières très développées afin de déchiqueter leur proies, alors que les dents des humains sont adaptées à leur régime omnivore. On trouve des dents chez trois classes de vertébrés : poissons, reptiles et mammifères, mais certains groupes de ces classes n'en sont pas pourvues, tandis que d'autres voient leurs dents renouvelées tout au long de leur vie.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dent est un organe minéralisé des vertébrés composé de structures organiques parmi les plus dures connues. Elle est constituée d'une partie implantée dans une structure osseuse, la racine, et d'une partie libre, la couronne. Le tissu constamment présent est la dentine, mais d'autres peuvent également être associés : pulpe dentaire, émail dentaire, cément et émailoïde[1].
-La dent, qui a une structure homologue à celle de l'écaille placoïde chez le requin, est parfois considérée comme étant un phanère[2]. Cependant, un phanère est habituellement défini comme étant une production de l'épiderme[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dent est un organe minéralisé des vertébrés composé de structures organiques parmi les plus dures connues. Elle est constituée d'une partie implantée dans une structure osseuse, la racine, et d'une partie libre, la couronne. Le tissu constamment présent est la dentine, mais d'autres peuvent également être associés : pulpe dentaire, émail dentaire, cément et émailoïde.
+La dent, qui a une structure homologue à celle de l'écaille placoïde chez le requin, est parfois considérée comme étant un phanère. Cependant, un phanère est habituellement défini comme étant une production de l'épiderme.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les mammifères, l'émail, constituant l'épithélium dentaire, dérive de l'ectoderme de la cavité buccale, tandis que chez les vertébrés inférieurs, c'est l'endoderme qui participe à la formation des dents pharyngiennes. Les autres tissus (pulpe dentaire, dentine et parodonte), constituant le mésenchyme dentaire, dérivent de la crête neurale[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les mammifères, l'émail, constituant l'épithélium dentaire, dérive de l'ectoderme de la cavité buccale, tandis que chez les vertébrés inférieurs, c'est l'endoderme qui participe à la formation des dents pharyngiennes. Les autres tissus (pulpe dentaire, dentine et parodonte), constituant le mésenchyme dentaire, dérivent de la crête neurale.
 </t>
         </is>
       </c>
@@ -577,10 +593,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Étymologie
-Issu du latin dens de même sens, provenant d'une racine indoeuropéenne (reconstruite) °d-, °ed, °denk ou °dent (mordre, mâcher)[5], d'où sont aussi issus, entre autres, les mots odontos (grec ancien), tand (néerlandais).
-Terminologie
-La denture d'un animal est l'ensemble de ses dents. Le nombre, la nature et la disposition des dents varient selon les espèces, et parfois selon les individus. Elle est en général caractéristique de leur régime alimentaire de l'espèce animale.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issu du latin dens de même sens, provenant d'une racine indoeuropéenne (reconstruite) °d-, °ed, °denk ou °dent (mordre, mâcher), d'où sont aussi issus, entre autres, les mots odontos (grec ancien), tand (néerlandais).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vocabulaire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Terminologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La denture d'un animal est l'ensemble de ses dents. Le nombre, la nature et la disposition des dents varient selon les espèces, et parfois selon les individus. Elle est en général caractéristique de leur régime alimentaire de l'espèce animale.
 On utilise couramment le mot dentition à la place de denture, alors que, stricto sensu, la dentition est le processus de mise en place de la denture. La dentition permet d'estimer, dans la plupart des cas, l'âge d'un animal tant qu'il n'est pas encore hors âge.
 On parle de dents palatines quand elles s'enchâssent dans le palais, des dents linguales sur la langue, et de dents vomériennes lorsqu'elles sont enchâssées dans le vomer tandis que des dents portés sur la mâchoire, comme pour les mammifères sont des dents maxillaires.
 La morphologie et l'organisation des dents sont souvent utilisées pour caractériser les taxons animaux, et il existe tout un vocabulaire particulier caractérisant la denture :
@@ -599,9 +655,43 @@
 monophyodontie : une génération de dents (chiroptères)
 Selon la croissance :
 brachyodontie : croissance limitée, couronne basse (majorité des vertébrés).
-hypsodontie : croissance continue, couronne très haute (ongulés, rongeurs, dents jugales des ruminants, chevaux ou éléphants).
-Analogies
-Par extension, le terme de dent est employé en zoologie pour désigner un organe présentant une analogie de forme ou d'implantation :
+hypsodontie : croissance continue, couronne très haute (ongulés, rongeurs, dents jugales des ruminants, chevaux ou éléphants).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vocabulaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Analogies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Par extension, le terme de dent est employé en zoologie pour désigner un organe présentant une analogie de forme ou d'implantation :
 la « dent de l'œuf » ou diamant, qui est un petit denticule corné présent chez l'embryon de quelques vertébrés ovipares et disparaissant après l'éclosion de l'œuf,
 la dent de l'oursin est l'une des cinq tiges calcaires, à extrémité visible et à croissance continue de l'appareil masticatoire de cet animal.
 Les os au niveau de la gorge peuvent quelquefois être qualifiés de dents pharyngiennes.
@@ -612,33 +702,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dent</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dent</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Denture selon le régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En effet, le régime alimentaire influe beaucoup sur les caractéristiques des dents. Selon les proies qu'ils mangent, chaque groupe d'animal a une dentition spécifique qui leur permet de capturer, manger et mâcher leur proie qu'elle soit animale ou végétale. Cette bonne corrélation entre le régime alimentaire et la morphologie des dents, jugales surtout, est notamment mise en évidence chez les mammifères[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En effet, le régime alimentaire influe beaucoup sur les caractéristiques des dents. Selon les proies qu'ils mangent, chaque groupe d'animal a une dentition spécifique qui leur permet de capturer, manger et mâcher leur proie qu'elle soit animale ou végétale. Cette bonne corrélation entre le régime alimentaire et la morphologie des dents, jugales surtout, est notamment mise en évidence chez les mammifères.
 Par contre, certains groupes d'animaux ne sont pas pourvus de dents :
 les tortues (terrestres et marines) sont édentées. Elles possèdent un bec corné qui leur permettent de trancher leur nourriture ;
 bien que les ancêtres des oiseaux possédaient des dents (voir Archaeopteryx), aujourd'hui tous les oiseaux en sont dépourvus ;
@@ -646,49 +738,158 @@
 Au contraire, certains animaux ont des dents qui sont renouvelées tout au long de la vie :
 les dents des reptiles sont remplacées tout au long de la vie, avant qu'elles ne s'abiment. Un crocodile voit ses dents être remplacées plus de quarante fois au cours de sa vie ;
 les requins ont des dents qui poussent en tapis roulant le long de la mâchoire. Chaque mâchoire du grand dauphin possède de 20 à 28 dents, d'un diamètre d'environ 1 cm ;
-les incisives des rongeurs poussent continuellement durant toute leur vie.
-Carnivores
-Insectivores
-Carnassiers
-Les carnassiers sont caractérisés par des canines (crocs) proéminentes et fortes. Ils ont une dentition complète soit composée d'incisives, de canines, de prémolaires et de molaires. Leur dentition fait souvent place à des dents carnassière pour déchirer la viande de leur proie.
-Piscivores
-Herbivores
-Les dents des herbivores leur servent à mastiquer les fibres ligneuses des plantes.
-Frugivores
-Omnivores</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dent</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dent</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+les incisives des rongeurs poussent continuellement durant toute leur vie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Denture selon le régime alimentaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Carnivores</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Carnassiers</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les carnassiers sont caractérisés par des canines (crocs) proéminentes et fortes. Ils ont une dentition complète soit composée d'incisives, de canines, de prémolaires et de molaires. Leur dentition fait souvent place à des dents carnassière pour déchirer la viande de leur proie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Denture selon le régime alimentaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Herbivores</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dents des herbivores leur servent à mastiquer les fibres ligneuses des plantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Denture selon le groupe animal</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet organe hautement différencié d'origine ectodermique et mésodermique a une fonction initiale de protection dans l'évolution (organe exosquelettique). La dent haplodonte (du grec ἁπλόος / haplóos, « simple » et ὀδούς, odoús « dent ») des reptiles et des poissons a pour fonction principale la préhension et la rétention des proies, la dent plexodonte des mammifères voit sa fonction se spécialiser dans la mastication.
-Mammifères
-Carnivores
-Sous-ordre des caniformes (Caniformia) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Denture selon le groupe animal</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Carnivores</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sous-ordre des caniformes (Caniformia) :
 Les canidés (chien, loup, coyote, renard...) ont des dents carnassières très développées pour déchirer leur proies.
 Les mustélidés (loutre, furet, belette, moufette...) ont aussi des dents carnassières très développées et possèdent une formule dentaire variable selon les sous-groupes.
 Les procyonidés (raton laveur...) ont des prémolaires tranchantes et des molaires broyeuses. Notez l'absence de dents carnassières.
@@ -700,83 +901,431 @@
 les félidés, ou félins (chat...) ont des dents carnassières très développées et possèdent une réduction du nombre de dents jugales. Ils possèdent tous cette formule dentaire:
 les viverridés (civettes...)... à compléter.
 les hyénidés (hyène...)... à compléter.
-les eupléridés (mangoustes...)... à compléter.
-Insectivores
-Les insectivores ont une dentition complète caractérisée par des dents jugales pointues et des dents colorées (souvent rouges à la pointe).
-Chiroptères
-Les Chiroptères (chauve-souris) ont aussi une dentition complète, mais qui est caractérisée par des canines proéminentes et des espaces significatifs entre les incisives.
-Lagomorphes
-Les lagomorphes (lièvres, lapins...) sont caractérisés par deux paires d'incisives rainurées et la présence d'un diastème, ce qui les distingue des rongeurs.
-Rongeurs
-Les rongeurs ont des incisives proéminentes et colorées (souvent jaunâtres) qui poussent continuellement durant toute leur vie, ce qui leur permet de ronger activement sans crainte d'usure prématurée, mais pose de graves problèmes en cas de malocclusion dentaire. Il y a aussi présence de dents jugales après le diastème.
-Artiodactyles
-Les artiodactyles n'ont pas d'incisives supérieures et possèdent un diastème.
-Proboscidiens
-Les Proboscidiens (éléphants...) sont caractérisés par des incisives qui leur servent de défenses. Chez les éléphantoïdes, la formule dentaire n'est jamais complète (2 prémolaires et 3 molaires). Le jeune possède des prémolaires de lait qui tombent quand les molaires apparaissent, il n'y a pas de prémolaires définitives. Quand la troisième molaire apparait, c'est au tour de la première de tomber.
-Reptiles
-Les reptiles sont parfois caractérisés par des crochets à venin de certains serpents.
-Poissons
-Poissons osseux
-Les balistes ou les tétraodons ont des dents antérieures élargies et soudées ainsi que des dents pharyngiennes.
-Poissons cartilagineux
-Conodontes
-Les conodontes (mot dont l'étymologie signifie "dents en cônes") forment une classe de poissons agnathes préhistoriques, disparus totalement à la fin du Trias.
+les eupléridés (mangoustes...)... à compléter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Denture selon le groupe animal</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Insectivores</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les insectivores ont une dentition complète caractérisée par des dents jugales pointues et des dents colorées (souvent rouges à la pointe).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Denture selon le groupe animal</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Chiroptères</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chiroptères (chauve-souris) ont aussi une dentition complète, mais qui est caractérisée par des canines proéminentes et des espaces significatifs entre les incisives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Denture selon le groupe animal</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Lagomorphes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lagomorphes (lièvres, lapins...) sont caractérisés par deux paires d'incisives rainurées et la présence d'un diastème, ce qui les distingue des rongeurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Denture selon le groupe animal</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Rongeurs</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rongeurs ont des incisives proéminentes et colorées (souvent jaunâtres) qui poussent continuellement durant toute leur vie, ce qui leur permet de ronger activement sans crainte d'usure prématurée, mais pose de graves problèmes en cas de malocclusion dentaire. Il y a aussi présence de dents jugales après le diastème.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Denture selon le groupe animal</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Artiodactyles</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les artiodactyles n'ont pas d'incisives supérieures et possèdent un diastème.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Denture selon le groupe animal</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Proboscidiens</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Proboscidiens (éléphants...) sont caractérisés par des incisives qui leur servent de défenses. Chez les éléphantoïdes, la formule dentaire n'est jamais complète (2 prémolaires et 3 molaires). Le jeune possède des prémolaires de lait qui tombent quand les molaires apparaissent, il n'y a pas de prémolaires définitives. Quand la troisième molaire apparait, c'est au tour de la première de tomber.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Denture selon le groupe animal</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les reptiles sont parfois caractérisés par des crochets à venin de certains serpents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Denture selon le groupe animal</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Poissons osseux</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les balistes ou les tétraodons ont des dents antérieures élargies et soudées ainsi que des dents pharyngiennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Denture selon le groupe animal</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Conodontes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conodontes (mot dont l'étymologie signifie "dents en cônes") forment une classe de poissons agnathes préhistoriques, disparus totalement à la fin du Trias.
 Si l'on parle de dents dans la description de leur anatomie, celles-ci n'étaient pas portées par des mâchoires, comme chez les vertébrés gnathostomes actuels, mais étaient localisées au niveau des tissus mous de la bouche et du pharynx. Certains auteurs préfèrent donc utiliser le terme d'éléments pour les désigner.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dent</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dent</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Évolution des dents</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Dent</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dent</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dent</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dent</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Les dents dans la culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Enseigne d'un dentiste
